--- a/examples/slots_reserve.xlsx
+++ b/examples/slots_reserve.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TTK\slots-backend\examples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9656EAFB-B23C-450B-8C5F-9EBD7B76B5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E02E4C-80EE-4451-8D90-822815355831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="slots" sheetId="1" r:id="rId1"/>
+    <sheet name="Слоты" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -49,7 +49,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh:mm"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="165" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -97,7 +97,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="D2" s="2">
         <v>25569.354166666668</v>
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="D3" s="2">
         <v>25569.395833333332</v>
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="D4" s="2">
         <v>25569.4375</v>
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="D5" s="2">
         <v>25569.479166666701</v>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>45905</v>
+        <v>45907</v>
       </c>
       <c r="D6" s="2">
         <v>25569.520833333299</v>
@@ -575,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="D7" s="2">
         <v>25569.5625</v>

--- a/examples/slots_reserve.xlsx
+++ b/examples/slots_reserve.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TTK\slots-backend\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E02E4C-80EE-4451-8D90-822815355831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4605F1-CF9E-4D11-82CE-C82BEE70E56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Слоты" sheetId="1" r:id="rId1"/>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,7 +475,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3">
-        <v>45907</v>
+        <v>45911</v>
       </c>
       <c r="D2" s="2">
         <v>25569.354166666668</v>
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="D3" s="2">
         <v>25569.395833333332</v>
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>45907</v>
+        <v>45912</v>
       </c>
       <c r="D4" s="2">
         <v>25569.4375</v>
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="D5" s="2">
         <v>25569.479166666701</v>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>45907</v>
+        <v>45911</v>
       </c>
       <c r="D6" s="2">
         <v>25569.520833333299</v>
@@ -575,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>45908</v>
+        <v>45912</v>
       </c>
       <c r="D7" s="2">
         <v>25569.5625</v>

--- a/examples/slots_reserve.xlsx
+++ b/examples/slots_reserve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TTK\slots-backend\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4605F1-CF9E-4D11-82CE-C82BEE70E56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0F04776-076D-49CB-86EE-06FD076FA6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>45912</v>
+        <v>45922</v>
       </c>
       <c r="D3" s="2">
         <v>25569.395833333332</v>
@@ -515,7 +515,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3">
-        <v>45912</v>
+        <v>45922</v>
       </c>
       <c r="D4" s="2">
         <v>25569.4375</v>
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>45912</v>
+        <v>45922</v>
       </c>
       <c r="D5" s="2">
         <v>25569.479166666701</v>
@@ -555,7 +555,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>45911</v>
+        <v>45921</v>
       </c>
       <c r="D6" s="2">
         <v>25569.520833333299</v>
@@ -575,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>45912</v>
+        <v>45922</v>
       </c>
       <c r="D7" s="2">
         <v>25569.5625</v>
